--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>1979.426265574331</v>
+        <v>44.51376303756</v>
       </c>
       <c r="R2">
-        <v>17814.83639016898</v>
+        <v>400.62386733804</v>
       </c>
       <c r="S2">
-        <v>0.3134281444342755</v>
+        <v>0.06477917940073338</v>
       </c>
       <c r="T2">
-        <v>0.3134281444342756</v>
+        <v>0.06477917940073337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H3">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I3">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J3">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>242.330932257156</v>
+        <v>190.23595947144</v>
       </c>
       <c r="R3">
-        <v>2180.978390314404</v>
+        <v>1712.12363524296</v>
       </c>
       <c r="S3">
-        <v>0.03837138859746848</v>
+        <v>0.2768431268475961</v>
       </c>
       <c r="T3">
-        <v>0.0383713885974685</v>
+        <v>0.276843126847596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H4">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I4">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J4">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>618.7047918095629</v>
+        <v>86.7897028319</v>
       </c>
       <c r="R4">
-        <v>5568.343126286067</v>
+        <v>781.1073254871</v>
       </c>
       <c r="S4">
-        <v>0.09796752635956373</v>
+        <v>0.1263017400964303</v>
       </c>
       <c r="T4">
-        <v>0.09796752635956375</v>
+        <v>0.1263017400964303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>727.6891939105437</v>
+        <v>20.845731830298</v>
       </c>
       <c r="R5">
-        <v>6549.202745194894</v>
+        <v>187.611586472682</v>
       </c>
       <c r="S5">
-        <v>0.1152244353522704</v>
+        <v>0.03033599744948618</v>
       </c>
       <c r="T5">
-        <v>0.1152244353522704</v>
+        <v>0.03033599744948618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
-        <v>89.087228870652</v>
+        <v>89.08722887065198</v>
       </c>
       <c r="R6">
-        <v>801.7850598358681</v>
+        <v>801.785059835868</v>
       </c>
       <c r="S6">
-        <v>0.01410633238698506</v>
+        <v>0.1296452419997987</v>
       </c>
       <c r="T6">
-        <v>0.01410633238698506</v>
+        <v>0.1296452419997987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>227.4521658374877</v>
+        <v>40.64349422308944</v>
       </c>
       <c r="R7">
-        <v>2047.069492537389</v>
+        <v>365.7914480078049</v>
       </c>
       <c r="S7">
-        <v>0.03601544120428053</v>
+        <v>0.05914692499775009</v>
       </c>
       <c r="T7">
-        <v>0.03601544120428053</v>
+        <v>0.05914692499775009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H8">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>1693.887735931853</v>
+        <v>29.77082251011</v>
       </c>
       <c r="R8">
-        <v>15244.98962338668</v>
+        <v>267.93740259099</v>
       </c>
       <c r="S8">
-        <v>0.268215138490674</v>
+        <v>0.04332434107317652</v>
       </c>
       <c r="T8">
-        <v>0.2682151384906741</v>
+        <v>0.04332434107317652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H9">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>207.373925124828</v>
+        <v>127.22988572514</v>
       </c>
       <c r="R9">
-        <v>1866.365326123452</v>
+        <v>1145.06897152626</v>
       </c>
       <c r="S9">
-        <v>0.03283619384380978</v>
+        <v>0.1851527938801604</v>
       </c>
       <c r="T9">
-        <v>0.03283619384380979</v>
+        <v>0.1851527938801604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H10">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>529.4546592794692</v>
+        <v>58.044987940775</v>
       </c>
       <c r="R10">
-        <v>4765.091933515222</v>
+        <v>522.404891466975</v>
       </c>
       <c r="S10">
-        <v>0.08383539933067237</v>
+        <v>0.08447065425486835</v>
       </c>
       <c r="T10">
-        <v>0.08383539933067238</v>
+        <v>0.08447065425486835</v>
       </c>
     </row>
   </sheetData>
